--- a/model_inputs/financial_reports/renal/PHC.xlsx
+++ b/model_inputs/financial_reports/renal/PHC.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A71FDC4-6070-4D3E-819D-9BB7161C91A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809BF461-45AF-401D-B10C-EC13BAF808F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1530" yWindow="1530" windowWidth="14400" windowHeight="7510" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -46,19 +46,19 @@
     <t>actual_parts_exp</t>
   </si>
   <si>
-    <t>budg_partial_oh</t>
-  </si>
-  <si>
-    <t>budg_total_exp</t>
-  </si>
-  <si>
-    <t>budg_labour_exp</t>
-  </si>
-  <si>
-    <t>budg_contracts_exp</t>
-  </si>
-  <si>
-    <t>budg_parts_exp</t>
+    <t>budgeted_partial_oh</t>
+  </si>
+  <si>
+    <t>budgeted_total_exp</t>
+  </si>
+  <si>
+    <t>budgeted_labour_exp</t>
+  </si>
+  <si>
+    <t>budgeted_contracts_exp</t>
+  </si>
+  <si>
+    <t>budgeted_parts_exp</t>
   </si>
 </sst>
 </file>
@@ -511,7 +511,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/model_inputs/financial_reports/renal/PHC.xlsx
+++ b/model_inputs/financial_reports/renal/PHC.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809BF461-45AF-401D-B10C-EC13BAF808F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2952AE85-9FDB-43A4-A980-FFE033374670}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -147,7 +147,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -156,7 +156,6 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -508,10 +507,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,10 +522,10 @@
     <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -566,269 +565,145 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>1313</v>
+        <v>1713</v>
       </c>
       <c r="B2" s="4">
-        <f t="shared" ref="B2:B7" si="0">C2-D2-E2-F2</f>
-        <v>20211.939999999999</v>
+        <f t="shared" ref="B2:B5" si="0">C2-D2</f>
+        <v>96922.43</v>
       </c>
       <c r="C2" s="5">
-        <v>567413.15</v>
+        <v>578329.75</v>
       </c>
       <c r="D2" s="5">
-        <v>543458.15</v>
-      </c>
-      <c r="E2" s="5"/>
+        <v>481407.32</v>
+      </c>
+      <c r="E2" s="5">
+        <v>77173.62</v>
+      </c>
       <c r="F2" s="5">
-        <v>3743.06</v>
+        <v>6294.95</v>
       </c>
       <c r="G2" s="6">
-        <f t="shared" ref="G2:G8" si="1">H2-I2-J2-K2</f>
+        <f t="shared" ref="G2:G5" si="1">H2-I2</f>
         <v>0</v>
       </c>
       <c r="H2" s="5">
-        <v>581464.78</v>
+        <v>617476.31999999995</v>
       </c>
       <c r="I2" s="5">
-        <v>581464.78</v>
+        <v>617476.31999999995</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>1413</v>
+        <v>1813</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" si="0"/>
-        <v>18921.339999999953</v>
+        <v>63711.390000000014</v>
       </c>
       <c r="C3" s="5">
-        <v>600797.24</v>
+        <v>507000.19</v>
       </c>
       <c r="D3" s="5">
-        <v>567690.54</v>
-      </c>
-      <c r="E3" s="5"/>
+        <v>443288.8</v>
+      </c>
+      <c r="E3" s="5">
+        <v>29758.62</v>
+      </c>
       <c r="F3" s="5">
-        <v>14185.36</v>
+        <v>11845.85</v>
       </c>
       <c r="G3" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>87235.989999999991</v>
       </c>
       <c r="H3" s="5">
-        <v>613350.39</v>
+        <v>627659.34</v>
       </c>
       <c r="I3" s="5">
-        <v>613350.39</v>
-      </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
+        <v>540423.35</v>
+      </c>
+      <c r="J3" s="5">
+        <v>78000.009999999995</v>
+      </c>
+      <c r="K3" s="5">
+        <v>9235.98</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>1513</v>
+        <v>1913</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="0"/>
-        <v>17629.389999999934</v>
+        <v>137505.79999999993</v>
       </c>
       <c r="C4" s="5">
-        <v>540051.96</v>
+        <v>675591.73</v>
       </c>
       <c r="D4" s="5">
-        <v>517084.78</v>
-      </c>
-      <c r="E4" s="5"/>
+        <v>538085.93000000005</v>
+      </c>
+      <c r="E4" s="5">
+        <v>109798.86</v>
+      </c>
       <c r="F4" s="5">
-        <v>5337.79</v>
+        <v>11053.84</v>
       </c>
       <c r="G4" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H4" s="5">
-        <v>577187.68999999994</v>
+        <v>76595.830000000075</v>
+      </c>
+      <c r="H4" s="7">
+        <v>650700.15</v>
       </c>
       <c r="I4" s="5">
-        <v>577187.68999999994</v>
-      </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
+        <v>574104.31999999995</v>
+      </c>
+      <c r="J4" s="5">
+        <v>68500</v>
+      </c>
+      <c r="K4" s="5">
+        <v>8095.83</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>1613</v>
+        <v>2013</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="0"/>
-        <v>15189.919999999925</v>
+        <v>137391.54000000004</v>
       </c>
       <c r="C5" s="5">
-        <v>578932.6</v>
+        <v>708450.31</v>
       </c>
       <c r="D5" s="5">
-        <v>539669.68000000005</v>
-      </c>
-      <c r="E5" s="5"/>
+        <v>571058.77</v>
+      </c>
+      <c r="E5" s="5">
+        <v>111596.7</v>
+      </c>
       <c r="F5" s="5">
-        <v>24073</v>
+        <v>11214.91</v>
       </c>
       <c r="G5" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>76595.820000000065</v>
       </c>
       <c r="H5" s="5">
-        <v>607018.37</v>
+        <v>682272.93</v>
       </c>
       <c r="I5" s="5">
-        <v>607018.37</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>1713</v>
-      </c>
-      <c r="B6" s="4">
-        <f t="shared" si="0"/>
-        <v>13453.859999999997</v>
-      </c>
-      <c r="C6" s="5">
-        <v>578329.75</v>
-      </c>
-      <c r="D6" s="5">
-        <v>481407.32</v>
-      </c>
-      <c r="E6" s="5">
-        <v>77173.62</v>
-      </c>
-      <c r="F6" s="5">
-        <v>6294.95</v>
-      </c>
-      <c r="G6" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="5">
-        <v>617476.31999999995</v>
-      </c>
-      <c r="I6" s="5">
-        <v>617476.31999999995</v>
-      </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>1813</v>
-      </c>
-      <c r="B7" s="4">
-        <f t="shared" si="0"/>
-        <v>22106.92000000002</v>
-      </c>
-      <c r="C7" s="5">
-        <v>507000.19</v>
-      </c>
-      <c r="D7" s="5">
-        <v>443288.8</v>
-      </c>
-      <c r="E7" s="5">
-        <v>29758.62</v>
-      </c>
-      <c r="F7" s="5">
-        <v>11845.85</v>
-      </c>
-      <c r="G7" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="5">
-        <v>627659.34</v>
-      </c>
-      <c r="I7" s="5">
-        <v>540423.35</v>
-      </c>
-      <c r="J7" s="5">
-        <v>78000.009999999995</v>
-      </c>
-      <c r="K7" s="5">
-        <v>9235.98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>1913</v>
-      </c>
-      <c r="B8" s="4">
-        <f>C8-D8-E8-F8</f>
-        <v>16653.099999999929</v>
-      </c>
-      <c r="C8" s="5">
-        <v>675591.73</v>
-      </c>
-      <c r="D8" s="5">
-        <v>538085.93000000005</v>
-      </c>
-      <c r="E8" s="5">
-        <v>109798.86</v>
-      </c>
-      <c r="F8" s="5">
-        <v>11053.84</v>
-      </c>
-      <c r="G8" s="6">
-        <f t="shared" si="1"/>
-        <v>7.4578565545380116E-11</v>
-      </c>
-      <c r="H8" s="7">
-        <v>650700.15</v>
-      </c>
-      <c r="I8" s="5">
-        <v>574104.31999999995</v>
-      </c>
-      <c r="J8" s="5">
+        <v>605677.11</v>
+      </c>
+      <c r="J5" s="5">
         <v>68500</v>
       </c>
-      <c r="K8" s="5">
-        <v>8095.83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>2013</v>
-      </c>
-      <c r="B9" s="4">
-        <f>C9-D9-E9-F9</f>
-        <v>14579.93000000004</v>
-      </c>
-      <c r="C9" s="5">
-        <v>708450.31</v>
-      </c>
-      <c r="D9" s="5">
-        <v>571058.77</v>
-      </c>
-      <c r="E9" s="5">
-        <v>111596.7</v>
-      </c>
-      <c r="F9" s="5">
-        <v>11214.91</v>
-      </c>
-      <c r="G9" s="8">
-        <f>H9-I9-J9-K9</f>
-        <v>6.5483618527650833E-11</v>
-      </c>
-      <c r="H9" s="5">
-        <v>682272.93</v>
-      </c>
-      <c r="I9" s="5">
-        <v>605677.11</v>
-      </c>
-      <c r="J9" s="5">
-        <v>68500</v>
-      </c>
-      <c r="K9" s="5">
+      <c r="K5" s="5">
         <v>8095.82</v>
       </c>
     </row>
